--- a/Data/ProductionModule_v1.xlsx
+++ b/Data/ProductionModule_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Tree1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -556,9 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
